--- a/bshe/VIS_opf/ieee39_vis_tds_db.xlsx
+++ b/bshe/VIS_opf/ieee39_vis_tds_db.xlsx
@@ -4782,7 +4782,7 @@
         <v>6</v>
       </c>
       <c r="H2" t="str">
-        <v>0.2</v>
+        <v>2.5</v>
       </c>
       <c r="I2" t="str">
         <v>1.2</v>
@@ -4817,7 +4817,7 @@
         <v>4.5</v>
       </c>
       <c r="H3" t="str">
-        <v>0.6</v>
+        <v>1.84</v>
       </c>
       <c r="I3" t="str">
         <v>1.2</v>
@@ -4852,7 +4852,7 @@
         <v>2.338</v>
       </c>
       <c r="H4" t="str">
-        <v>1.0</v>
+        <v>0.84</v>
       </c>
       <c r="I4" t="str">
         <v>1.2</v>
@@ -4887,7 +4887,7 @@
         <v>5.22</v>
       </c>
       <c r="H5" t="str">
-        <v>1.266</v>
+        <v>1.766</v>
       </c>
       <c r="I5" t="str">
         <v>1.2</v>
@@ -4957,7 +4957,7 @@
         <v>3.2</v>
       </c>
       <c r="H7" t="str">
-        <v>0.8</v>
+        <v>1.53</v>
       </c>
       <c r="I7" t="str">
         <v>1.2</v>
@@ -5062,7 +5062,7 @@
         <v>6.8</v>
       </c>
       <c r="H10" t="str">
-        <v>0.7</v>
+        <v>1.03</v>
       </c>
       <c r="I10" t="str">
         <v>1.2</v>
@@ -5097,7 +5097,7 @@
         <v>2.74</v>
       </c>
       <c r="H11" t="str">
-        <v>0.7</v>
+        <v>1.15</v>
       </c>
       <c r="I11" t="str">
         <v>1.2</v>
@@ -5132,7 +5132,7 @@
         <v>2.475</v>
       </c>
       <c r="H12" t="str">
-        <v>0.5</v>
+        <v>0.846</v>
       </c>
       <c r="I12" t="str">
         <v>1.2</v>
@@ -5202,7 +5202,7 @@
         <v>2.24</v>
       </c>
       <c r="H14" t="str">
-        <v>0</v>
+        <v>0.472</v>
       </c>
       <c r="I14" t="str">
         <v>1.2</v>
@@ -5342,7 +5342,7 @@
         <v>2.835</v>
       </c>
       <c r="H18" t="str">
-        <v>0.5</v>
+        <v>1.269</v>
       </c>
       <c r="I18" t="str">
         <v>1.2</v>
@@ -5412,7 +5412,7 @@
         <v>4</v>
       </c>
       <c r="H20" t="str">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="I20" t="str">
         <v>1.2</v>
